--- a/InputData/elec/BDSBaPCF/Boolean Do Suppliers Bid at Peak Capacity Factors.xlsx
+++ b/InputData/elec/BDSBaPCF/Boolean Do Suppliers Bid at Peak Capacity Factors.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Documents\eps-us\InputData\elec\BDSBaPCF\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="50" windowWidth="19400" windowHeight="11000" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="45" windowWidth="23955" windowHeight="11580"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="BDSBaPCF" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -53,9 +58,6 @@
     <t>natural gas peaker</t>
   </si>
   <si>
-    <t>Do Suppliers Bid at Peak Capacity Factors</t>
-  </si>
-  <si>
     <t>Certain plant types, such as coal and natural gas, are capable of running for most</t>
   </si>
   <si>
@@ -116,19 +118,22 @@
     <t>offshore wind</t>
   </si>
   <si>
-    <t>Biomass is considered energy limited and does not provide 100% at peak, per peak capacity factors data sheet.  Therefore, changing from national value of one to zero for California model.</t>
-  </si>
-  <si>
-    <t>Hold over notes from US Model documentation:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Also, the model is producing too much from coal and petroleum compared to actual, empirical data.  In order to align with reality, these two fuel types are not treated as bidding at peak capacity factor. </t>
+    <t>crude oil</t>
+  </si>
+  <si>
+    <t>heavy or residual fuel oil</t>
+  </si>
+  <si>
+    <t>municipal solid waste</t>
+  </si>
+  <si>
+    <t>Do Suppliers Bid at Peak Capacity Factors (Boolean)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -169,8 +174,8 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -232,7 +237,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -267,7 +272,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -476,123 +481,103 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B28"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M14" sqref="M14:M15"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:2" ht="14.25" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="14.25" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:2" ht="14.25" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="14.25" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:2" ht="14.25" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -605,29 +590,29 @@
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.54296875" customWidth="1"/>
-    <col min="2" max="2" width="23.1796875" customWidth="1"/>
+    <col min="1" max="1" width="23.5703125" customWidth="1"/>
+    <col min="2" max="2" width="23.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -656,7 +641,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -683,7 +668,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -707,25 +692,52 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B13">
         <f>B2</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B14">
         <f>B6</f>
         <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15">
+        <f>B11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16">
+        <f>B11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17">
+        <f>B9</f>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/InputData/elec/BDSBaPCF/Boolean Do Suppliers Bid at Peak Capacity Factors.xlsx
+++ b/InputData/elec/BDSBaPCF/Boolean Do Suppliers Bid at Peak Capacity Factors.xlsx
@@ -1,26 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Documents\eps-us\InputData\elec\BDSBaPCF\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-us\InputData\elec\BDSBaPCF\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1F3D9BE-1C8B-413E-B84F-E4DB8AF6F36A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="45" windowWidth="23955" windowHeight="11580"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="BDSBaPCF" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>BDSBaPCF Boolean Do Suppliers Bid at Peak Capacity Factors</t>
   </si>
@@ -31,9 +44,6 @@
     <t>Notes</t>
   </si>
   <si>
-    <t>natural gas nonpeaker</t>
-  </si>
-  <si>
     <t>nuclear</t>
   </si>
   <si>
@@ -127,14 +137,53 @@
     <t>municipal solid waste</t>
   </si>
   <si>
-    <t>Do Suppliers Bid at Peak Capacity Factors (Boolean)</t>
+    <t>For the United States, we have set coal to 0 as of version 3.4. This reflects</t>
+  </si>
+  <si>
+    <t>the fact that certain air quality / environmental restrictions, as well as current</t>
+  </si>
+  <si>
+    <t xml:space="preserve">supply chain logistics, limit the amount the coal dispatches annually. </t>
+  </si>
+  <si>
+    <t>natural gas steam turbine</t>
+  </si>
+  <si>
+    <t>natural gas combined cycle</t>
+  </si>
+  <si>
+    <t>Do Suppliers Bid at Peak Capacity Factors</t>
+  </si>
+  <si>
+    <t>Unit: dimensionless (Boolean)</t>
+  </si>
+  <si>
+    <t>hard coal w CCS</t>
+  </si>
+  <si>
+    <t>natural gas combined cycle w CCS</t>
+  </si>
+  <si>
+    <t>biomass w CCS</t>
+  </si>
+  <si>
+    <t>lignite w CCS</t>
+  </si>
+  <si>
+    <t>small modular reactor</t>
+  </si>
+  <si>
+    <t>hydrogen combustion turbine</t>
+  </si>
+  <si>
+    <t>hydrogen combined cycle</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -150,13 +199,34 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -171,11 +241,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -195,9 +270,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -235,9 +310,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -272,7 +347,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -307,7 +382,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -480,10 +555,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -497,7 +572,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -507,77 +582,92 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>26</v>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -586,38 +676,41 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.5703125" customWidth="1"/>
+    <col min="1" max="1" width="30.140625" customWidth="1"/>
     <col min="2" max="2" width="23.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>40</v>
+      </c>
       <c r="B1" s="2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -625,15 +718,15 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -641,7 +734,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -649,7 +742,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -657,7 +750,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -665,23 +758,23 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -689,7 +782,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -697,50 +790,115 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="B13">
-        <f>B2</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B14">
-        <f>B6</f>
+        <f>B2</f>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B15">
-        <f>B11</f>
+        <f>B7</f>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B16">
-        <f>B11</f>
+        <f>B12</f>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B17">
-        <f>B9</f>
+        <f>B12</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18">
+        <f>B10</f>
         <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25" s="4">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>